--- a/data/inventory_data_clean.xlsx
+++ b/data/inventory_data_clean.xlsx
@@ -610,7 +610,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>ventes</t>
+          <t>vendes</t>
         </is>
       </c>
     </row>
@@ -8599,7 +8599,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>ventes</t>
+          <t>vendes</t>
         </is>
       </c>
     </row>

--- a/data/inventory_data_clean.xlsx
+++ b/data/inventory_data_clean.xlsx
@@ -12,7 +12,7 @@
     <sheet name="vendes_2023" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="vendes_2022" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="preus_venda_cataleg_2023" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="darrera_entrada-sortida" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="darrera_entrada_sortida" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="stock_final_2023" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
